--- a/NTDS_Leiden.xlsx
+++ b/NTDS_Leiden.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16200" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="16800" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
-    <t>Breiten</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Nummer</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>Team-captain</t>
   </si>
   <si>
-    <t>Beginner</t>
-  </si>
-  <si>
     <t>EHBO</t>
   </si>
   <si>
@@ -300,6 +291,15 @@
   </si>
   <si>
     <t>Bohm</t>
+  </si>
+  <si>
+    <t>Breitensport</t>
+  </si>
+  <si>
+    <t>Open Class</t>
+  </si>
+  <si>
+    <t>Beginners</t>
   </si>
 </sst>
 </file>
@@ -666,7 +666,7 @@
   <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +676,8 @@
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
@@ -696,73 +697,73 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -770,42 +771,42 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="O2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="S2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -813,22 +814,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H3" s="2">
         <v>7</v>
@@ -837,26 +838,26 @@
         <v>7</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="3"/>
       <c r="O3" s="2"/>
       <c r="Q3" s="3"/>
       <c r="S3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -864,44 +865,44 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V4" s="2"/>
     </row>
@@ -910,28 +911,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -939,11 +940,11 @@
       <c r="Q5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -951,20 +952,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H6" s="2">
         <v>6</v>
@@ -973,24 +974,24 @@
         <v>6</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="O6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="S6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -998,20 +999,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H7" s="2">
         <v>5</v>
@@ -1020,10 +1021,10 @@
         <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1031,11 +1032,11 @@
       <c r="Q7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -1043,20 +1044,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H8" s="2">
         <v>2</v>
@@ -1065,25 +1066,25 @@
         <v>2</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -1091,38 +1092,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="O9" s="2"/>
       <c r="Q9" s="3"/>
       <c r="S9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -1132,41 +1133,41 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="O10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="S10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V10" s="2"/>
     </row>
@@ -1175,42 +1176,42 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="O11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="S11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -1218,28 +1219,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1247,10 +1248,10 @@
       <c r="Q12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="V12" s="2"/>
     </row>
@@ -1259,48 +1260,48 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="S13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1308,49 +1309,49 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="S14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -1358,22 +1359,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H15" s="2">
         <v>16</v>
@@ -1382,10 +1383,10 @@
         <v>16</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="3"/>
@@ -1394,7 +1395,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -1404,28 +1405,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
@@ -1433,11 +1434,11 @@
       <c r="Q16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -1445,20 +1446,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H17" s="2">
         <v>14</v>
@@ -1467,10 +1468,10 @@
         <v>14</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1478,11 +1479,11 @@
       <c r="Q17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -1490,35 +1491,35 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="O18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="S18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -1529,48 +1530,48 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="S19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -1578,28 +1579,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>

--- a/NTDS_Leiden.xlsx
+++ b/NTDS_Leiden.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="17400" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="18000" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>E-mail</t>
   </si>
@@ -300,9 +300,6 @@
   </si>
   <si>
     <t>Ben je op een eerder ETDS of NTDS vrijwilliger geweest?</t>
-  </si>
-  <si>
-    <t>Doe je mee aan de Same Seks wedstrijd?</t>
   </si>
 </sst>
 </file>
@@ -666,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X48"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +695,7 @@
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -768,11 +765,8 @@
       <c r="W1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -815,7 +809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -866,7 +860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -912,7 +906,7 @@
       </c>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -953,7 +947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1000,7 +994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1045,7 +1039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1093,7 +1087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1134,7 +1128,7 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1177,7 +1171,7 @@
       </c>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1220,7 +1214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1261,7 +1255,7 @@
       </c>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1310,7 +1304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1360,7 +1354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1406,7 +1400,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
